--- a/data/temp_north_city.xlsx
+++ b/data/temp_north_city.xlsx
@@ -6,7 +6,7 @@
     <sheet state="visible" name="years_data" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="SI_Stockholm" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="SI_Oslo" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="SI_Helsenki" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="SI_ Helsinki" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
